--- a/data/atl_pac_range_size_fix2.xlsx
+++ b/data/atl_pac_range_size_fix2.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,6 +1679,12 @@
       <c r="D41" s="3">
         <v>7917</v>
       </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1991431.8</v>
+      </c>
       <c r="G41" s="4">
         <v>341208300000000</v>
       </c>
@@ -1699,6 +1705,12 @@
       <c r="D42" s="3">
         <v>0</v>
       </c>
+      <c r="E42" s="1">
+        <v>90</v>
+      </c>
+      <c r="F42" s="1">
+        <v>90</v>
+      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
@@ -1718,6 +1730,12 @@
       </c>
       <c r="D43" s="3">
         <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>90</v>
+      </c>
+      <c r="F43" s="1">
+        <v>90</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
